--- a/doc/GPS定位器BOM明细及供应商明细/万物GPS定位器物料供应商明细表.xlsx
+++ b/doc/GPS定位器BOM明细及供应商明细/万物GPS定位器物料供应商明细表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="280">
   <si>
     <t>供应商一览表</t>
   </si>
@@ -548,9 +548,6 @@
     <t>深圳市德海威实业有限公司</t>
   </si>
   <si>
-    <t>深圳市同创华成科技有限公司</t>
-  </si>
-  <si>
     <t>深圳市天阳卓创精密五金有限公司</t>
   </si>
   <si>
@@ -665,9 +662,6 @@
     <t>张伟河</t>
   </si>
   <si>
-    <t>李晓明</t>
-  </si>
-  <si>
     <t>马国滨</t>
   </si>
   <si>
@@ -735,9 +729,6 @@
   </si>
   <si>
     <t>18898770188</t>
-  </si>
-  <si>
-    <t>13077807075</t>
   </si>
   <si>
     <t>13602516040</t>
@@ -1410,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2210,20 +2201,20 @@
         <v>160</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -2236,20 +2227,20 @@
         <v>161</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -2262,20 +2253,20 @@
         <v>162</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G30" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -2288,20 +2279,20 @@
         <v>163</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -2314,20 +2305,20 @@
         <v>164</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2341,17 +2332,17 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -2364,23 +2355,23 @@
         <v>166</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -2392,23 +2383,23 @@
         <v>167</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J35" s="12"/>
     </row>
@@ -2420,23 +2411,23 @@
         <v>168</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -2448,23 +2439,23 @@
         <v>169</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J37" s="12"/>
     </row>
@@ -2476,20 +2467,20 @@
         <v>170</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -2502,20 +2493,20 @@
         <v>171</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -2528,23 +2519,23 @@
         <v>172</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J40" s="12"/>
     </row>
@@ -2556,23 +2547,23 @@
         <v>173</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J41" s="12"/>
     </row>
@@ -2584,23 +2575,23 @@
         <v>174</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J42" s="12"/>
     </row>
@@ -2612,133 +2603,137 @@
         <v>175</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G43" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>253</v>
-      </c>
       <c r="I43" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>176</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H44" s="12"/>
+        <v>247</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="I45" s="12"/>
+        <v>267</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>268</v>
+      </c>
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>178</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>271</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="I46" s="12"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="I47" s="12"/>
+        <v>270</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>271</v>
+      </c>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>180</v>
@@ -2747,26 +2742,26 @@
         <v>198</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>181</v>
@@ -2775,158 +2770,130 @@
         <v>199</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>182</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="H50" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I50" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="H52" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>281</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="I52" s="12"/>
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="12">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="12">
-        <v>57</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/GPS定位器BOM明细及供应商明细/万物GPS定位器物料供应商明细表.xlsx
+++ b/doc/GPS定位器BOM明细及供应商明细/万物GPS定位器物料供应商明细表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="279">
   <si>
     <t>供应商一览表</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>常普三</t>
-  </si>
-  <si>
-    <t>力奇</t>
   </si>
   <si>
     <t>RT</t>
@@ -1403,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2186,10 +2183,10 @@
         <v>35</v>
       </c>
       <c r="H27" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="J27" s="12"/>
     </row>
@@ -2198,23 +2195,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -2224,23 +2221,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -2250,23 +2247,23 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -2276,23 +2273,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -2302,23 +2299,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2328,21 +2325,21 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -2352,26 +2349,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H34" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -2380,26 +2377,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H35" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="J35" s="12"/>
     </row>
@@ -2408,26 +2405,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H36" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -2436,26 +2433,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="J37" s="12"/>
     </row>
@@ -2464,23 +2461,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -2490,23 +2487,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -2516,26 +2513,26 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="J40" s="12"/>
     </row>
@@ -2544,26 +2541,26 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="J41" s="12"/>
     </row>
@@ -2572,26 +2569,26 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H42" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="J42" s="12"/>
     </row>
@@ -2600,26 +2597,26 @@
         <v>43</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J43" s="12"/>
     </row>
@@ -2628,23 +2625,23 @@
         <v>45</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -2654,26 +2651,26 @@
         <v>46</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H45" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>268</v>
       </c>
       <c r="J45" s="12"/>
     </row>
@@ -2682,23 +2679,23 @@
         <v>48</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -2708,26 +2705,26 @@
         <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -2736,26 +2733,26 @@
         <v>51</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H48" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="J48" s="12"/>
     </row>
@@ -2764,26 +2761,26 @@
         <v>52</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="J49" s="12"/>
     </row>
@@ -2792,26 +2789,26 @@
         <v>53</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H50" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="I50" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="J50" s="12"/>
     </row>
@@ -2823,23 +2820,23 @@
         <v>124</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J51" s="12"/>
     </row>
@@ -2848,23 +2845,23 @@
         <v>55</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -2874,23 +2871,23 @@
         <v>57</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>247</v>
-      </c>
       <c r="H53" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -2932,7 +2929,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2963,10 +2960,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -2977,16 +2974,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F3" s="2">
         <v>13922881470</v>
@@ -2995,23 +2992,23 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="27">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2">
         <v>13556883306</v>
@@ -3020,7 +3017,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -3315,7 +3312,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -3345,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -3640,7 +3637,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -3674,7 +3671,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -3685,13 +3682,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -3703,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -3712,13 +3709,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -3730,7 +3727,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -3739,13 +3736,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>115</v>
@@ -3766,13 +3763,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>115</v>
@@ -3784,20 +3781,20 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="27">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>115</v>
@@ -3809,20 +3806,20 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="27">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -4085,7 +4082,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4115,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
